--- a/qingqianDoc/工作管理/技能考核表 (中级)V1.3-0818.xlsx
+++ b/qingqianDoc/工作管理/技能考核表 (中级)V1.3-0818.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="14085"/>
+    <workbookView windowWidth="20400" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="技能考核表-中级测试人员-V1.3 0818" sheetId="1" r:id="rId1"/>
+    <sheet name="技能考核表-中级测试人员-V1.4 160509" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'技能考核表-中级测试人员-V1.3 0818'!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'技能考核表-中级测试人员-V1.4 160509'!$A$1:$H$73</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>QA内部技能考核表</t>
   </si>
@@ -135,7 +135,8 @@
   </si>
   <si>
     <t>1）怎么去做
-2）必须提交的文档（测试用例、BUG列表、测试报告）
+2）必须提交的文档
+（测试用例、BUG列表、测试报告）
 3）客户 确认</t>
   </si>
   <si>
@@ -156,7 +157,7 @@
     <t>L2-0009</t>
   </si>
   <si>
-    <t>测试技术之一黑盒测试</t>
+    <t>测试技术之一黑盒测试(不要)</t>
   </si>
   <si>
     <t>1）等价类划分
@@ -384,7 +385,10 @@
     <t>L2-0031</t>
   </si>
   <si>
-    <t>JAVA-</t>
+    <t>JAVA-内存使用</t>
+  </si>
+  <si>
+    <t>JAVA-线程定位</t>
   </si>
   <si>
     <t>Jenkins使用</t>
@@ -418,8 +422,11 @@
     <t>Linux-Rsync配置</t>
   </si>
   <si>
-    <t>1）一台 Rsync-server,一台Rsync-client
-2) 一台Rsync-server,一台server、client同台,一台client</t>
+    <t>1）一台 Rsync-server,
+一台Rsync-client
+2) 一台Rsync-server,
+一台server、client同台,
+一台client</t>
   </si>
   <si>
     <t>L2-0035</t>
@@ -471,7 +478,7 @@
     <t>L2-0040</t>
   </si>
   <si>
-    <t>数据库-Mysql-触发器</t>
+    <t>数据库-MySQL-触发器</t>
   </si>
   <si>
     <t>1）会修改MySQL的触发器
@@ -482,7 +489,7 @@
     <t>L2-0041</t>
   </si>
   <si>
-    <t>数据库-Mysql-job</t>
+    <t>数据库-MySQL-job</t>
   </si>
   <si>
     <t>1）查询的基本语法
@@ -492,13 +499,16 @@
     <t>L2-0042</t>
   </si>
   <si>
-    <t>数据库-Mysql-索引</t>
+    <t>数据库-MySQL-索引</t>
   </si>
   <si>
     <t>L2-0043</t>
   </si>
   <si>
-    <t>数据库-Mysql-查询语句效率</t>
+    <t>数据库-MySQL-存储过程</t>
+  </si>
+  <si>
+    <t>数据库-MySQL-查询语句效率</t>
   </si>
   <si>
     <t>L2-0044</t>
@@ -516,6 +526,12 @@
   </si>
   <si>
     <t>数据库-MySQL参数和优化</t>
+  </si>
+  <si>
+    <t>1）MyISAM的常用参数
+2）Innodb的常用参数
+3）MyISAM参数优化
+4）Innodb参数优化</t>
   </si>
   <si>
     <t>L2-0046</t>
@@ -667,6 +683,10 @@
     <t>工作分解</t>
   </si>
   <si>
+    <t>1）测试工作分解
+2）搭建环境分解</t>
+  </si>
+  <si>
     <t>L2-0063</t>
   </si>
   <si>
@@ -717,8 +737,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -766,24 +786,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -830,65 +838,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -903,64 +911,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1304,36 +1297,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="3:6">
+    <row r="1" ht="15" spans="2:8">
+      <c r="B1" s="3"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" ht="14.25" spans="3:6">
-      <c r="C2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="14.25" spans="2:8">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="7" t="s">
@@ -1452,7 +1455,7 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1487,7 +1490,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" ht="36.75" spans="1:8">
+    <row r="11" ht="48.75" spans="1:8">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" ht="78" customHeight="1" spans="1:8">
-      <c r="A13" s="10">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1596,7 +1599,7 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" ht="60.75" spans="1:8">
-      <c r="A17" s="10">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1668,7 +1671,7 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" ht="60.75" spans="1:8">
-      <c r="A21" s="10">
+      <c r="A21" s="14">
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1740,7 +1743,7 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:8">
-      <c r="A25" s="10">
+      <c r="A25" s="14">
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1775,7 +1778,7 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" ht="26" customHeight="1" spans="1:8">
+    <row r="27" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -1793,69 +1796,69 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A28" s="27">
+    <row r="28" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A28" s="10">
         <v>25</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A29" s="27">
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A29" s="14">
         <v>26</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="28"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A30" s="27">
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A31" s="27">
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" s="4" customFormat="1" ht="36" customHeight="1" spans="1:8">
       <c r="A32" s="10">
@@ -1870,13 +1873,13 @@
       <c r="D32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" s="4" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A33" s="10">
+      <c r="A33" s="14">
         <v>30</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -1888,10 +1891,10 @@
       <c r="D33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" s="4" customFormat="1" ht="44" customHeight="1" spans="1:8">
       <c r="A34" s="10">
@@ -1906,14 +1909,16 @@
       <c r="D34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:8">
-      <c r="A35" s="10"/>
-      <c r="B35" s="35" t="s">
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A35" s="10">
+        <v>32</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="11"/>
@@ -1923,619 +1928,656 @@
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" s="4" customFormat="1" ht="44" customHeight="1" spans="1:8">
+    <row r="36" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A36" s="10">
-        <v>32</v>
-      </c>
-      <c r="B36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A37" s="14">
+        <v>34</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" ht="48.75" spans="1:8">
-      <c r="A37" s="10">
-        <v>33</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" ht="48.75" spans="1:8">
+      <c r="A38" s="10">
+        <v>35</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" ht="37" customHeight="1" spans="1:8">
-      <c r="A38" s="10">
-        <v>34</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" ht="57" customHeight="1" spans="1:8">
+    <row r="39" ht="37" customHeight="1" spans="1:8">
       <c r="A39" s="10">
-        <v>35</v>
-      </c>
-      <c r="B39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" ht="57" customHeight="1" spans="1:8">
+      <c r="A40" s="10">
+        <v>37</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A40" s="10">
-        <v>36</v>
-      </c>
-      <c r="B40" s="27" t="s">
+      <c r="D40" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A41" s="14">
+        <v>38</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-    </row>
-    <row r="41" ht="40" customHeight="1" spans="1:8">
-      <c r="A41" s="10">
-        <v>37</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="40" customHeight="1" spans="1:8">
+      <c r="A42" s="10">
+        <v>39</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" ht="31" customHeight="1" spans="1:8">
-      <c r="A42" s="10">
-        <v>38</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
+      <c r="A43" s="10">
+        <v>40</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-    </row>
-    <row r="43" ht="78" customHeight="1" spans="1:8">
-      <c r="A43" s="10">
-        <v>39</v>
-      </c>
-      <c r="B43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="78" customHeight="1" spans="1:8">
+      <c r="A44" s="10">
+        <v>41</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A44" s="10">
-        <v>40</v>
-      </c>
-      <c r="B44" s="27" t="s">
+      <c r="D44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A45" s="14">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-    </row>
-    <row r="45" ht="36.75" spans="1:8">
-      <c r="A45" s="10">
-        <v>41</v>
-      </c>
-      <c r="B45" s="35" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="36.75" spans="1:8">
+      <c r="A46" s="10">
+        <v>43</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" ht="24.75" spans="1:8">
-      <c r="A46" s="10">
-        <v>42</v>
-      </c>
-      <c r="B46" s="35" t="s">
+      <c r="D46" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="25"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
     </row>
-    <row r="47" ht="14.25" spans="1:8">
+    <row r="47" s="3" customFormat="1" ht="24.75" spans="1:8">
       <c r="A47" s="10">
-        <v>43</v>
-      </c>
-      <c r="B47" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" ht="14.25" spans="1:8">
+    <row r="48" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A48" s="10">
-        <v>44</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>133</v>
+        <v>45</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="25"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
     </row>
-    <row r="49" ht="36.75" spans="1:8">
+    <row r="49" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A49" s="10">
-        <v>45</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>137</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="24"/>
       <c r="F49" s="25"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A50" s="27">
-        <v>46</v>
-      </c>
-      <c r="B50" s="42" t="s">
+      <c r="A50" s="14">
+        <v>47</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="36.75" spans="1:8">
+      <c r="A51" s="10">
+        <v>48</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="27" t="s">
+      <c r="D51" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="10">
-        <v>47</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="25"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
     </row>
-    <row r="52" ht="14.25" spans="1:8">
+    <row r="52" s="4" customFormat="1" ht="48.75" spans="1:8">
       <c r="A52" s="10">
-        <v>48</v>
-      </c>
-      <c r="B52" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10" t="s">
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A53" s="10">
+        <v>50</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-    </row>
-    <row r="53" ht="14.25" spans="1:8">
-      <c r="A53" s="10">
-        <v>49</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>144</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="25"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
     </row>
-    <row r="54" ht="14.25" spans="1:8">
+    <row r="54" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A54" s="10">
-        <v>50</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>146</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>145</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="25"/>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" ht="48.75" spans="1:8">
-      <c r="A55" s="10">
-        <v>51</v>
-      </c>
-      <c r="B55" s="35" t="s">
+    <row r="55" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A55" s="14">
+        <v>52</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="25"/>
       <c r="G55" s="26"/>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" ht="48.75" spans="1:8">
+    <row r="56" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A56" s="10">
-        <v>52</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>152</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="11"/>
       <c r="D56" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="25"/>
       <c r="G56" s="26"/>
       <c r="H56" s="26"/>
     </row>
-    <row r="57" ht="36.75" spans="1:8">
+    <row r="57" s="3" customFormat="1" ht="48.75" spans="1:8">
       <c r="A57" s="10">
-        <v>53</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>154</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>151</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
     </row>
-    <row r="58" ht="48.75" spans="1:8">
+    <row r="58" s="3" customFormat="1" ht="48.75" spans="1:8">
       <c r="A58" s="10">
-        <v>54</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>152</v>
+        <v>55</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="25"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" ht="24.75" spans="1:8">
+    <row r="59" s="3" customFormat="1" ht="36.75" spans="1:8">
       <c r="A59" s="10">
-        <v>55</v>
-      </c>
-      <c r="B59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="25"/>
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
     </row>
-    <row r="60" ht="36.75" spans="1:8">
-      <c r="A60" s="10">
-        <v>56</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>163</v>
+    <row r="60" s="3" customFormat="1" ht="48.75" spans="1:8">
+      <c r="A60" s="14">
+        <v>57</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
     </row>
-    <row r="61" s="3" customFormat="1" ht="48.75" spans="1:8">
+    <row r="61" s="3" customFormat="1" ht="24.75" spans="1:8">
       <c r="A61" s="10">
-        <v>57</v>
-      </c>
-      <c r="B61" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="36.75" spans="1:8">
+      <c r="A62" s="10">
+        <v>59</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C62" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-    </row>
-    <row r="62" ht="87" customHeight="1" spans="1:8">
-      <c r="A62" s="10">
-        <v>58</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="25"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
     </row>
-    <row r="63" ht="36.75" spans="1:8">
+    <row r="63" s="4" customFormat="1" ht="48.75" spans="1:8">
       <c r="A63" s="10">
-        <v>59</v>
-      </c>
-      <c r="B63" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="87" customHeight="1" spans="1:8">
+      <c r="A64" s="10">
+        <v>61</v>
+      </c>
+      <c r="B64" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:8">
-      <c r="A64" s="10">
-        <v>60</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="25"/>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
     </row>
-    <row r="65" ht="14.25" spans="1:8">
-      <c r="A65" s="10">
-        <v>61</v>
-      </c>
-      <c r="B65" s="35" t="s">
+    <row r="65" s="3" customFormat="1" ht="36.75" spans="1:8">
+      <c r="A65" s="14">
+        <v>62</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="25"/>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" ht="14.25" spans="1:8">
+    <row r="66" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A66" s="10">
-        <v>62</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>178</v>
+        <v>63</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="25"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" ht="14.25" spans="1:8">
+    <row r="67" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A67" s="10">
-        <v>63</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>180</v>
+        <v>64</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>179</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="25"/>
       <c r="G67" s="26"/>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" ht="48.75" spans="1:8">
+    <row r="68" s="3" customFormat="1" ht="14.25" spans="1:8">
       <c r="A68" s="10">
-        <v>64</v>
-      </c>
-      <c r="B68" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="25"/>
       <c r="G68" s="26"/>
       <c r="H68" s="26"/>
     </row>
-    <row r="69" ht="36.75" spans="1:8">
+    <row r="69" s="3" customFormat="1" ht="24.75" spans="1:8">
       <c r="A69" s="10">
-        <v>65</v>
-      </c>
-      <c r="B69" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
       <c r="H69" s="26"/>
     </row>
-    <row r="70" ht="72.75" spans="1:8">
-      <c r="A70" s="10">
-        <v>66</v>
-      </c>
-      <c r="B70" s="35" t="s">
+    <row r="70" s="3" customFormat="1" ht="48.75" spans="1:8">
+      <c r="A70" s="14">
+        <v>67</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
     </row>
-    <row r="71" spans="5:6">
-      <c r="E71" t="s">
+    <row r="71" s="3" customFormat="1" ht="36.75" spans="1:8">
+      <c r="A71" s="10">
+        <v>68</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F71" s="6">
-        <f>SUM(F21:F70)</f>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" s="3" customFormat="1" ht="72.75" spans="1:8">
+      <c r="A72" s="10">
+        <v>69</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="6">
+        <f>SUM(F21:F72)</f>
         <v>0</v>
       </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H71"/>
+  <autoFilter ref="A1:H73"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/qingqianDoc/工作管理/技能考核表 (中级)V1.3-0818.xlsx
+++ b/qingqianDoc/工作管理/技能考核表 (中级)V1.3-0818.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView windowWidth="28710" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="技能考核表-中级测试人员-V1.4 160509" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'技能考核表-中级测试人员-V1.4 160509'!$A$1:$H$73</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -736,9 +736,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -838,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,9 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -863,9 +860,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -881,27 +875,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -920,15 +899,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -940,18 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1299,8 +1257,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1316,14 +1274,14 @@
   <sheetData>
     <row r="1" ht="15" spans="2:8">
       <c r="B1" s="3"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
@@ -1334,1233 +1292,1233 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A5" s="14">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="72.75" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" ht="36.75" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" ht="24.75" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" ht="24.75" spans="1:8">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" ht="48.75" spans="1:8">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" ht="78" customHeight="1" spans="1:8">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" ht="78" customHeight="1" spans="1:8">
-      <c r="A13" s="14">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" ht="72.75" spans="1:8">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="36.75" spans="1:8">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="24.75" spans="1:8">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" ht="60.75" spans="1:8">
-      <c r="A17" s="14">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" ht="72.75" spans="1:8">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" ht="36.75" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" ht="60.75" spans="1:8">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" ht="24.75" spans="1:8">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" ht="60.75" spans="1:8">
-      <c r="A21" s="14">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" ht="36.75" spans="1:8">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" ht="60.75" spans="1:8">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" ht="48.75" spans="1:8">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:8">
-      <c r="A25" s="14">
+      <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" ht="57" customHeight="1" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A28" s="10">
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A28" s="8">
         <v>25</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A29" s="14">
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A29" s="8">
         <v>26</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A30" s="10">
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A30" s="8">
         <v>27</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" s="4" customFormat="1" ht="26" customHeight="1" spans="1:8">
-      <c r="A31" s="10">
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A31" s="8">
         <v>28</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" s="4" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A32" s="10">
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A32" s="8">
         <v>29</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A33" s="14">
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="36" customHeight="1" spans="1:8">
+      <c r="A33" s="8">
         <v>30</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" s="4" customFormat="1" ht="44" customHeight="1" spans="1:8">
-      <c r="A34" s="10">
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="44" customHeight="1" spans="1:8">
+      <c r="A34" s="8">
         <v>31</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>32</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="8">
         <v>33</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A37" s="14">
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A37" s="8">
         <v>34</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" ht="48.75" spans="1:8">
-      <c r="A38" s="10">
+      <c r="A38" s="8">
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
     <row r="39" ht="37" customHeight="1" spans="1:8">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>36</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" ht="57" customHeight="1" spans="1:8">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A41" s="14">
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A41" s="8">
         <v>38</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" s="3" customFormat="1" ht="40" customHeight="1" spans="1:8">
-      <c r="A42" s="10">
+      <c r="A42" s="8">
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" s="3" customFormat="1" ht="31" customHeight="1" spans="1:8">
-      <c r="A43" s="10">
+      <c r="A43" s="8">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" s="3" customFormat="1" ht="78" customHeight="1" spans="1:8">
-      <c r="A44" s="10">
+      <c r="A44" s="8">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" s="4" customFormat="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A45" s="14">
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A45" s="8">
         <v>42</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
     </row>
     <row r="46" s="3" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A46" s="10">
+      <c r="A46" s="8">
         <v>43</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" s="3" customFormat="1" ht="24.75" spans="1:8">
-      <c r="A47" s="10">
+      <c r="A47" s="8">
         <v>44</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A48" s="10">
+      <c r="A48" s="8">
         <v>45</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A49" s="10">
+      <c r="A49" s="8">
         <v>46</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A50" s="14">
+      <c r="A50" s="8">
         <v>47</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A51" s="10">
+      <c r="A51" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" s="4" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A52" s="10">
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="48.75" spans="1:8">
+      <c r="A52" s="8">
         <v>49</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A53" s="10">
+      <c r="A53" s="8">
         <v>50</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A54" s="10">
+      <c r="A54" s="8">
         <v>51</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A55" s="14">
+      <c r="A55" s="8">
         <v>52</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A56" s="10">
+      <c r="A56" s="8">
         <v>53</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="9"/>
+      <c r="D56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A57" s="10">
+      <c r="A57" s="8">
         <v>54</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A58" s="10">
+      <c r="A58" s="8">
         <v>55</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A59" s="10">
+      <c r="A59" s="8">
         <v>56</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A60" s="14">
+      <c r="A60" s="8">
         <v>57</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="24.75" spans="1:8">
-      <c r="A61" s="10">
+      <c r="A61" s="8">
         <v>58</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" s="3" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A62" s="10">
+      <c r="A62" s="8">
         <v>59</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-    </row>
-    <row r="63" s="4" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A63" s="10">
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="48.75" spans="1:8">
+      <c r="A63" s="8">
         <v>60</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
     </row>
     <row r="64" s="3" customFormat="1" ht="87" customHeight="1" spans="1:8">
-      <c r="A64" s="10">
+      <c r="A64" s="8">
         <v>61</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" s="3" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A65" s="14">
+      <c r="A65" s="8">
         <v>62</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A66" s="10">
+      <c r="A66" s="8">
         <v>63</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="10" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A67" s="10">
+      <c r="A67" s="8">
         <v>64</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="10" t="s">
+      <c r="C67" s="9"/>
+      <c r="D67" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
     </row>
     <row r="68" s="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A68" s="10">
+      <c r="A68" s="8">
         <v>65</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="10" t="s">
+      <c r="C68" s="9"/>
+      <c r="D68" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
     </row>
     <row r="69" s="3" customFormat="1" ht="24.75" spans="1:8">
-      <c r="A69" s="10">
+      <c r="A69" s="8">
         <v>66</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" s="3" customFormat="1" ht="48.75" spans="1:8">
-      <c r="A70" s="14">
+      <c r="A70" s="8">
         <v>67</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
     </row>
     <row r="71" s="3" customFormat="1" ht="36.75" spans="1:8">
-      <c r="A71" s="10">
+      <c r="A71" s="8">
         <v>68</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
     </row>
     <row r="72" s="3" customFormat="1" ht="72.75" spans="1:8">
-      <c r="A72" s="10">
+      <c r="A72" s="8">
         <v>69</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="3"/>
@@ -2569,7 +2527,7 @@
       <c r="E73" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <f>SUM(F21:F72)</f>
         <v>0</v>
       </c>
